--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CEB398-F2D0-4D6A-9721-135E6B8C2482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E44C9-3295-4E6A-B01D-01FE54D6938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Team Members</t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>Architectural Review</t>
+  </si>
+  <si>
+    <t>Processor Architecture</t>
+  </si>
+  <si>
+    <t>Accelerator Architecture</t>
+  </si>
+  <si>
+    <t>Memory Architecutre</t>
+  </si>
+  <si>
+    <t>Processor Verification/Compiler</t>
   </si>
 </sst>
 </file>
@@ -542,7 +554,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,6 +620,9 @@
       <c r="B3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -616,6 +631,9 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -624,6 +642,9 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -631,6 +652,9 @@
       </c>
       <c r="B6" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E44C9-3295-4E6A-B01D-01FE54D6938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E2632-779F-4922-9937-6083118B4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Team Members</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Processor Verification/Compiler</t>
+  </si>
+  <si>
+    <t>Processor Design</t>
+  </si>
+  <si>
+    <t>Accelerator Design</t>
+  </si>
+  <si>
+    <t>Processor Verification</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,6 +632,9 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -634,6 +646,9 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -645,6 +660,9 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -655,6 +673,9 @@
       </c>
       <c r="C6" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\face-filter-website\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E2632-779F-4922-9937-6083118B4C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D2850-26BA-428F-9420-88A7DB9026CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="7320" yWindow="-105" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Team Members</t>
   </si>
@@ -110,13 +108,25 @@
   </si>
   <si>
     <t>Processor Verification</t>
+  </si>
+  <si>
+    <t>Processor: Fetch, Execute, and Hazard Detection</t>
+  </si>
+  <si>
+    <t>Processor: Decode, Memory, WriteBack, and Top Level</t>
+  </si>
+  <si>
+    <t>Finish Assembly Tests for Processor Verification</t>
+  </si>
+  <si>
+    <t>Finish Systloic Array and AI Model Array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -540,7 +550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -552,7 +562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -562,17 +572,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -587,7 +600,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -632,11 +645,14 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -646,11 +662,14 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -660,11 +679,14 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -674,8 +696,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\face-filter-website\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D2850-26BA-428F-9420-88A7DB9026CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A614829-110C-4D62-B771-72854691C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-105" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Team Members</t>
   </si>
@@ -120,13 +120,28 @@
   </si>
   <si>
     <t>Finish Systloic Array and AI Model Array</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>Memory: SDRAM and AXI Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processor: Verify and Debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processor:  Verify and Debug</t>
+  </si>
+  <si>
+    <t>Accelerator: Continue Work On</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -550,7 +565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -562,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -572,20 +587,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -600,7 +616,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -651,8 +667,14 @@
       <c r="E3" t="s">
         <v>24</v>
       </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -668,8 +690,14 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -685,8 +713,14 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -701,6 +735,12 @@
       </c>
       <c r="E6" t="s">
         <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A614829-110C-4D62-B771-72854691C64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECEF53-C1E6-49CC-9442-5A93E6C3EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Team Members</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Accelerator: Continue Work On</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Processor:  Finished Verification</t>
+  </si>
+  <si>
+    <t>Memory: SDRAM and AXI Interface and On-Chip</t>
+  </si>
+  <si>
+    <t>Poster: Start, Processor: Connect to Top Level</t>
+  </si>
+  <si>
+    <t>Processor: Connect to Top Level, VGA: Display Images</t>
   </si>
 </sst>
 </file>
@@ -587,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -599,6 +611,8 @@
     <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.9140625" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -673,6 +687,12 @@
       <c r="G3" t="s">
         <v>30</v>
       </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -696,6 +716,12 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -719,6 +745,12 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -741,6 +773,12 @@
       </c>
       <c r="G6" t="s">
         <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\face-filter-website\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\traffic-sign-detection\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ECEF53-C1E6-49CC-9442-5A93E6C3EE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057BD2E4-4E59-4007-B495-043AB9F3DD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Team Members</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>Processor: Connect to Top Level, VGA: Display Images</t>
+  </si>
+  <si>
+    <t>Software for Processor</t>
+  </si>
+  <si>
+    <t>Software for Processor and Image Resizer</t>
+  </si>
+  <si>
+    <t>SDRAM: UART Write to SDRAM, VGA: Display Smaller Images from SDRAM, Image Resizer, Poster, Website</t>
   </si>
 </sst>
 </file>
@@ -599,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -611,8 +620,10 @@
     <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.9140625" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -693,6 +704,9 @@
       <c r="I3" t="s">
         <v>36</v>
       </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -722,6 +736,9 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -751,6 +768,9 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -779,6 +799,9 @@
       </c>
       <c r="I6" t="s">
         <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/report/weekly_report.xlsx
+++ b/report/weekly_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albac\Documents\traffic-sign-detection\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057BD2E4-4E59-4007-B495-043AB9F3DD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A3D276-CB06-4517-BEFA-251F093D11AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{67EA143E-9FE8-7540-9204-94FEFE791C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Team Members</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>21-Apr</t>
-  </si>
-  <si>
-    <t>28-Apr</t>
   </si>
   <si>
     <t>Architectural Review</t>
@@ -234,8 +231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{024D7811-DC23-4C0B-B943-590C3DB68AD8}" name="Table3" displayName="Table3" ref="A2:K6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:K6" xr:uid="{024D7811-DC23-4C0B-B943-590C3DB68AD8}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{024D7811-DC23-4C0B-B943-590C3DB68AD8}" name="Table3" displayName="Table3" ref="A2:J6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:J6" xr:uid="{024D7811-DC23-4C0B-B943-590C3DB68AD8}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -246,9 +243,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
     <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6E026B02-EE75-43D9-B829-02B084DE1424}" name="Team Members"/>
     <tableColumn id="2" xr3:uid="{FC201293-20C0-4995-81AD-9482F6362B24}" name="24-Feb"/>
     <tableColumn id="3" xr3:uid="{4FB1EF6C-979F-4381-82B2-24142BE0293D}" name="3-Mar"/>
@@ -259,7 +255,6 @@
     <tableColumn id="8" xr3:uid="{6218E019-892F-4B0B-84AE-728620F13C6A}" name="7-Apr"/>
     <tableColumn id="9" xr3:uid="{E19D5335-F209-46BB-826E-5EE592908BF5}" name="14-Apr"/>
     <tableColumn id="10" xr3:uid="{80508B85-170E-4E95-B662-1851336E00D1}" name="21-Apr"/>
-    <tableColumn id="11" xr3:uid="{22F1A3C4-A403-425B-839D-F7981CF529AD}" name="28-Apr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,7 +581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,7 +593,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -606,27 +601,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AF9D12-BAE8-1A42-83B7-3859D323A59F}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="85.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -639,9 +633,8 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,141 +665,138 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
